--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>Đinh trần tố</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>094990449</t>
+          <t>0946041192</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="J2" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trần thị mỹ duyên</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,10 +535,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0912239800</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -547,7 +545,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>Chị vui</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,8 +573,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>094990449</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J4" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,8 +613,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0912239800</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,7 +625,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -636,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,10 +653,8 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F6" t="n">
+        <v/>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -663,7 +663,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,10 +691,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0345277993</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -703,7 +701,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1800000</v>
+        <v>7000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -716,11 +714,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -733,7 +731,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -743,10 +741,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
       <c r="J8" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -773,7 +771,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -783,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>2500000</v>
+        <v>1800000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -796,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -813,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -823,10 +821,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="11">
@@ -836,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -853,7 +851,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -863,7 +861,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -876,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -893,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -916,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -931,8 +929,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0876359756</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -941,7 +941,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>3000000</v>
+        <v>1350000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -981,7 +981,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1009,10 +1009,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0989649094</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1021,7 +1019,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>8100000</v>
+        <v>3000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1032,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1051,7 +1049,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1061,10 +1059,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="J16" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1074,11 +1072,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1091,7 +1089,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1101,7 +1099,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>2000000</v>
+        <v>8100000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1114,11 +1112,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,7 +1129,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1141,10 +1139,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>5800000</v>
+        <v>1500000</v>
       </c>
       <c r="J18" t="n">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="19">
@@ -1154,11 +1152,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1171,7 +1169,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1181,7 +1179,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1194,11 +1192,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1211,7 +1209,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1221,10 +1219,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>3500000</v>
+        <v>5800000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="21">
@@ -1234,11 +1232,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1251,7 +1249,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1261,10 +1259,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>10000000</v>
+        <v>900000</v>
       </c>
       <c r="J21" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1274,11 +1272,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1291,7 +1289,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1301,7 +1299,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>8000000</v>
+        <v>3500000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1314,11 +1312,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1331,7 +1329,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1341,10 +1339,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>6500000</v>
+        <v>10000000</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="24">
@@ -1354,11 +1352,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1371,7 +1369,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1381,7 +1379,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>2800000</v>
+        <v>8000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1394,11 +1392,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1411,7 +1409,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1421,7 +1419,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>40500000</v>
+        <v>6500000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1434,11 +1432,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1451,7 +1449,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1461,7 +1459,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>7000000</v>
+        <v>2800000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1474,11 +1472,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1491,7 +1489,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1501,10 +1499,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>4000000</v>
+        <v>40500000</v>
       </c>
       <c r="J27" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1514,11 +1512,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1531,7 +1529,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1541,10 +1539,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="J28" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1554,11 +1552,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1571,7 +1569,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1581,10 +1579,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="J29" t="n">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="30">
@@ -1594,11 +1592,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1609,8 +1607,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0964414150</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1619,10 +1619,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>53000000</v>
+        <v>8000000</v>
       </c>
       <c r="J30" t="n">
-        <v>7000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="31">
@@ -1632,11 +1632,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1647,8 +1647,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1657,10 +1659,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>40000000</v>
+        <v>1000000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="32">
@@ -1670,11 +1672,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1695,10 +1697,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>12000000</v>
+        <v>53000000</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="33">
@@ -1708,11 +1710,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1733,10 +1735,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>2000000</v>
+        <v>40000000</v>
       </c>
       <c r="J33" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1746,11 +1748,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1771,7 +1773,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1784,11 +1786,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1809,10 +1811,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J35" t="n">
         <v>500000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1822,11 +1824,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1847,10 +1849,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
       <c r="J36" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1860,11 +1862,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1885,7 +1887,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1898,11 +1900,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1923,10 +1925,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="39">
@@ -1936,11 +1938,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1961,10 +1963,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J39" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1974,11 +1976,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1999,10 +2001,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="J40" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2012,11 +2014,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2037,10 +2039,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>36900000</v>
+        <v>10000000</v>
       </c>
       <c r="J41" t="n">
-        <v>14000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="42">
@@ -2050,11 +2052,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2075,10 +2077,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="43">
@@ -2088,11 +2090,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2113,10 +2115,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1500000</v>
+        <v>36900000</v>
       </c>
       <c r="J43" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="44">
@@ -2126,11 +2128,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2151,7 +2153,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>11000000</v>
+        <v>2000000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2164,11 +2166,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2189,10 +2191,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="46">
@@ -2202,11 +2204,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2227,10 +2229,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="J46" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2240,11 +2242,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2265,10 +2267,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="48">
@@ -2278,11 +2280,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2303,10 +2305,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>5500000</v>
+        <v>10000000</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="49">
@@ -2316,11 +2318,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2341,10 +2343,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="J49" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2354,11 +2356,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2379,10 +2381,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>12000000</v>
+        <v>5500000</v>
       </c>
       <c r="J50" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2392,11 +2394,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2417,10 +2419,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="52">
@@ -2430,11 +2432,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2455,10 +2457,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="J52" t="n">
-        <v>3000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="53">
@@ -2468,11 +2470,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2493,10 +2495,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>21000000</v>
+        <v>6000000</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="54">
@@ -2506,34 +2508,110 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>70</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cô Trang</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v/>
+      </c>
+      <c r="F54" t="n">
+        <v/>
+      </c>
+      <c r="G54" t="n">
+        <v/>
+      </c>
+      <c r="H54" t="n">
+        <v/>
+      </c>
+      <c r="I54" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>69</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v/>
+      </c>
+      <c r="F55" t="n">
+        <v/>
+      </c>
+      <c r="G55" t="n">
+        <v/>
+      </c>
+      <c r="H55" t="n">
+        <v/>
+      </c>
+      <c r="I55" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>68</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v/>
-      </c>
-      <c r="F54" t="n">
-        <v/>
-      </c>
-      <c r="G54" t="n">
-        <v/>
-      </c>
-      <c r="H54" t="n">
-        <v/>
-      </c>
-      <c r="I54" t="n">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v/>
+      </c>
+      <c r="F56" t="n">
+        <v/>
+      </c>
+      <c r="G56" t="n">
+        <v/>
+      </c>
+      <c r="H56" t="n">
+        <v/>
+      </c>
+      <c r="I56" t="n">
         <v>5000000</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J56" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Đinh trần tố</t>
+          <t>Chị duyên</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0946041192</t>
+          <t>0988925422</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thanh</t>
+          <t>Đinh trần tố</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0946041192</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -558,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,10 +575,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>094990449</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J4" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Trần thị mỹ duyên</t>
+          <t>Chị vui</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0912239800</t>
+          <t>094990449</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,8 +653,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0912239800</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -663,7 +665,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -676,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,7 +703,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -714,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -729,10 +731,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -741,7 +741,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -754,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -781,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,10 +821,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>9000000</v>
+        <v>1800000</v>
       </c>
       <c r="J10" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -861,10 +861,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J11" t="n">
         <v>2500000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -874,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -901,7 +901,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -941,7 +941,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -981,7 +981,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1009,8 +1009,10 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1019,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1032,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1047,10 +1049,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0855677756</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1059,7 +1059,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1072,11 +1072,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1099,7 +1099,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>8100000</v>
+        <v>3500000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1139,10 +1139,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1500000</v>
+        <v>8100000</v>
       </c>
       <c r="J18" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1152,11 +1152,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1179,10 +1179,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="20">
@@ -1192,11 +1192,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1219,10 +1219,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>5800000</v>
+        <v>2000000</v>
       </c>
       <c r="J20" t="n">
-        <v>1700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1232,11 +1232,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1259,10 +1259,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>900000</v>
+        <v>5800000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="22">
@@ -1272,11 +1272,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1299,7 +1299,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>3500000</v>
+        <v>900000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1312,11 +1312,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1339,10 +1339,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="J23" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1352,11 +1352,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1379,10 +1379,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="25">
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1419,7 +1419,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>6500000</v>
+        <v>8000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1459,7 +1459,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>2800000</v>
+        <v>6500000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1472,11 +1472,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1499,7 +1499,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>40500000</v>
+        <v>2800000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1539,7 +1539,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>7000000</v>
+        <v>40500000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1579,10 +1579,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J29" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1592,11 +1592,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1619,10 +1619,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="J30" t="n">
-        <v>17000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="31">
@@ -1632,11 +1632,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1659,10 +1659,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="J31" t="n">
-        <v>1300000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="32">
@@ -1672,11 +1672,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1687,8 +1687,10 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1697,10 +1699,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>53000000</v>
+        <v>1000000</v>
       </c>
       <c r="J32" t="n">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="33">
@@ -1710,11 +1712,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1735,10 +1737,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>40000000</v>
+        <v>53000000</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="34">
@@ -1748,11 +1750,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1773,7 +1775,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>12000000</v>
+        <v>40000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1786,11 +1788,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1811,10 +1813,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="J35" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1824,11 +1826,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1849,10 +1851,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="37">
@@ -1862,11 +1864,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1887,7 +1889,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1900,11 +1902,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1925,10 +1927,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>2500000</v>
+        <v>500000</v>
       </c>
       <c r="J38" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1938,11 +1940,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1953,8 +1955,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1963,10 +1967,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J39" t="n">
         <v>3000000</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1976,11 +1980,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2001,7 +2005,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2014,11 +2018,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2039,10 +2043,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="J41" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2052,11 +2056,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2077,10 +2081,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J42" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6000000</v>
       </c>
     </row>
     <row r="43">
@@ -2090,11 +2094,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2115,10 +2119,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>36900000</v>
+        <v>5000000</v>
       </c>
       <c r="J43" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="44">
@@ -2128,11 +2132,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2153,10 +2157,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>2000000</v>
+        <v>36900000</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="45">
@@ -2166,11 +2170,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2191,10 +2195,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J45" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2204,11 +2208,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2229,10 +2233,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>11000000</v>
+        <v>1500000</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="47">
@@ -2242,11 +2246,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2267,10 +2271,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="J47" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2280,11 +2284,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2308,7 +2312,7 @@
         <v>10000000</v>
       </c>
       <c r="J48" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="49">
@@ -2318,11 +2322,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2343,10 +2347,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="50">
@@ -2356,11 +2360,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2381,7 +2385,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>5500000</v>
+        <v>1500000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2394,11 +2398,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2419,10 +2423,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>5500000</v>
       </c>
       <c r="J51" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2432,11 +2436,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2457,10 +2461,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="53">
@@ -2470,11 +2474,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2495,10 +2499,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="J53" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="54">
@@ -2508,11 +2512,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2533,10 +2537,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J54" t="n">
         <v>1000000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3000000</v>
       </c>
     </row>
     <row r="55">
@@ -2546,11 +2550,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2571,10 +2575,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>21000000</v>
+        <v>1000000</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="56">
@@ -2584,34 +2588,72 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>69</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v/>
+      </c>
+      <c r="F56" t="n">
+        <v/>
+      </c>
+      <c r="G56" t="n">
+        <v/>
+      </c>
+      <c r="H56" t="n">
+        <v/>
+      </c>
+      <c r="I56" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
         <v>68</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v/>
-      </c>
-      <c r="F56" t="n">
-        <v/>
-      </c>
-      <c r="G56" t="n">
-        <v/>
-      </c>
-      <c r="H56" t="n">
-        <v/>
-      </c>
-      <c r="I56" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v/>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+      <c r="G57" t="n">
+        <v/>
+      </c>
+      <c r="H57" t="n">
+        <v/>
+      </c>
+      <c r="I57" t="n">
         <v>5000000</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J57" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -625,7 +625,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J5" t="n">
         <v>2000000</v>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chị duyên</t>
+          <t>Thanh nhã</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0988925422</t>
+          <t>0949377116</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đinh trần tố</t>
+          <t>Chị duyên</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0946041192</t>
+          <t>0988925422</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thanh</t>
+          <t>Đinh trần tố</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,8 +575,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0946041192</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,10 +615,8 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>094990449</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -625,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trần thị mỹ duyên</t>
+          <t>Chị vui</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0912239800</t>
+          <t>094990449</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -665,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="7">
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -693,8 +693,10 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0912239800</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -703,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -716,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -741,7 +743,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -754,11 +756,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -769,10 +771,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -781,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,7 +821,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -861,10 +861,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>9000000</v>
+        <v>1800000</v>
       </c>
       <c r="J11" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -874,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -901,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J12" t="n">
         <v>2500000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -941,7 +941,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -981,7 +981,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1021,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1049,8 +1049,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1059,7 +1061,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1072,11 +1074,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1087,10 +1089,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0855677756</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1099,7 +1099,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1139,7 +1139,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>8100000</v>
+        <v>3500000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1152,11 +1152,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1179,10 +1179,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>1500000</v>
+        <v>8100000</v>
       </c>
       <c r="J19" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1192,11 +1192,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1219,10 +1219,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="21">
@@ -1232,11 +1232,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1259,10 +1259,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>5800000</v>
+        <v>2000000</v>
       </c>
       <c r="J21" t="n">
-        <v>1700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1272,11 +1272,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1299,10 +1299,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>900000</v>
+        <v>5800000</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="23">
@@ -1312,11 +1312,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1339,7 +1339,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>3500000</v>
+        <v>900000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1352,11 +1352,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1379,10 +1379,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="J24" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1419,10 +1419,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="26">
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1459,7 +1459,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>6500000</v>
+        <v>8000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1472,11 +1472,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1499,7 +1499,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>2800000</v>
+        <v>6500000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1539,7 +1539,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>40500000</v>
+        <v>2800000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1579,7 +1579,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>7000000</v>
+        <v>40500000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1592,11 +1592,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1619,10 +1619,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J30" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1632,11 +1632,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1659,10 +1659,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="J31" t="n">
-        <v>17000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="32">
@@ -1672,11 +1672,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1699,10 +1699,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="J32" t="n">
-        <v>1300000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="33">
@@ -1712,11 +1712,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1727,8 +1727,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1737,10 +1739,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>53000000</v>
+        <v>1000000</v>
       </c>
       <c r="J33" t="n">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="34">
@@ -1750,11 +1752,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1775,10 +1777,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>40000000</v>
+        <v>53000000</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="35">
@@ -1788,11 +1790,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1813,7 +1815,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>12000000</v>
+        <v>40000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1826,11 +1828,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1851,10 +1853,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="J36" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1864,11 +1866,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1889,10 +1891,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="38">
@@ -1902,11 +1904,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1927,7 +1929,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1940,11 +1942,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1955,10 +1957,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1967,10 +1967,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>5500000</v>
+        <v>500000</v>
       </c>
       <c r="J39" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1980,11 +1980,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1995,8 +1995,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2005,10 +2007,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J40" t="n">
         <v>3000000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2018,11 +2020,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2043,7 +2045,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2056,11 +2058,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2081,10 +2083,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="J42" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2094,11 +2096,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,10 +2121,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J43" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6000000</v>
       </c>
     </row>
     <row r="44">
@@ -2132,11 +2134,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2157,10 +2159,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>36900000</v>
+        <v>5000000</v>
       </c>
       <c r="J44" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="45">
@@ -2170,11 +2172,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2195,10 +2197,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>2000000</v>
+        <v>36900000</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="46">
@@ -2208,11 +2210,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2233,10 +2235,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J46" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2246,11 +2248,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2271,10 +2273,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>11000000</v>
+        <v>1500000</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="48">
@@ -2284,11 +2286,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2309,10 +2311,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="J48" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2322,11 +2324,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2350,7 +2352,7 @@
         <v>10000000</v>
       </c>
       <c r="J49" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="50">
@@ -2360,11 +2362,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2385,10 +2387,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="51">
@@ -2398,11 +2400,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2423,7 +2425,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>5500000</v>
+        <v>1500000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2436,11 +2438,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2461,10 +2463,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>5500000</v>
       </c>
       <c r="J52" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2474,11 +2476,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2499,10 +2501,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="54">
@@ -2512,11 +2514,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2537,10 +2539,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="J54" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="55">
@@ -2550,11 +2552,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2575,10 +2577,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J55" t="n">
         <v>1000000</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3000000</v>
       </c>
     </row>
     <row r="56">
@@ -2588,11 +2590,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2613,10 +2615,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>21000000</v>
+        <v>1000000</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="57">
@@ -2626,34 +2628,72 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>69</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v/>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+      <c r="G57" t="n">
+        <v/>
+      </c>
+      <c r="H57" t="n">
+        <v/>
+      </c>
+      <c r="I57" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>68</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v/>
-      </c>
-      <c r="F57" t="n">
-        <v/>
-      </c>
-      <c r="G57" t="n">
-        <v/>
-      </c>
-      <c r="H57" t="n">
-        <v/>
-      </c>
-      <c r="I57" t="n">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v/>
+      </c>
+      <c r="F58" t="n">
+        <v/>
+      </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+      <c r="H58" t="n">
+        <v/>
+      </c>
+      <c r="I58" t="n">
         <v>5000000</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J58" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thanh nhã</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0949377116</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chị duyên</t>
+          <t>Yến</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0988925422</t>
+          <t>0388388943</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Đinh trần tố</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0946041192</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>8000000</v>
+        <v>20000000</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>40500000</v>
       </c>
     </row>
     <row r="5">
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thanh</t>
+          <t>Mẹ mai sang</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,8 +615,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0918997753</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -625,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>2000000</v>
+        <v>9000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -638,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>H-Sa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>094990449</t>
+          <t>0394582697</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -665,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>3000000</v>
+        <v>38000000</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -678,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Trần thị mỹ duyên</t>
+          <t>Thanh nhã</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0912239800</t>
+          <t>0949377116</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -718,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>Chị duyên</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -733,8 +735,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0988925422</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -743,7 +747,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -756,11 +760,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Đinh trần tố</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -771,8 +775,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0946041192</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -781,7 +787,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,10 +815,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -821,7 +825,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -834,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Chị vui</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,7 +855,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>094990449</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -861,7 +865,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>1800000</v>
+        <v>5000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -874,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,7 +895,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0912239800</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -901,10 +905,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
       <c r="J12" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -914,11 +918,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -929,10 +933,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0339542900</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -941,7 +943,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -954,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -969,10 +971,8 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0921476462</t>
-        </is>
+      <c r="F14" t="n">
+        <v/>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -981,7 +981,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1021,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1350000</v>
+        <v>4000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1061,7 +1061,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1089,8 +1089,10 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0912122976</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1099,10 +1101,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="18">
@@ -1112,11 +1114,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1129,7 +1131,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1139,7 +1141,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1152,11 +1154,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,7 +1171,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1179,7 +1181,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>8100000</v>
+        <v>1500000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1192,11 +1194,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1209,7 +1211,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1219,10 +1221,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="J20" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1232,11 +1234,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1249,7 +1251,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1259,7 +1261,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1272,11 +1274,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1287,10 +1289,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0768862580</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1299,10 +1299,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>5800000</v>
+        <v>3000000</v>
       </c>
       <c r="J22" t="n">
-        <v>1700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1312,11 +1312,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1339,7 +1339,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>900000</v>
+        <v>3500000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1352,11 +1352,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1379,7 +1379,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>3500000</v>
+        <v>8100000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1419,10 +1419,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J25" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="26">
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1459,7 +1459,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1472,11 +1472,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1499,10 +1499,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>6500000</v>
+        <v>7000000</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28">
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1539,7 +1539,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>2800000</v>
+        <v>900000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1579,7 +1579,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>40500000</v>
+        <v>3500000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1592,11 +1592,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1619,10 +1619,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J30" t="n">
         <v>7000000</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1632,11 +1632,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1659,10 +1659,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="J31" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1672,11 +1672,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1699,10 +1699,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>8000000</v>
+        <v>6500000</v>
       </c>
       <c r="J32" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1712,11 +1712,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1739,10 +1739,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>1000000</v>
+        <v>2800000</v>
       </c>
       <c r="J33" t="n">
-        <v>1300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1767,8 +1767,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0949439889</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1777,10 +1779,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>53000000</v>
+        <v>40500000</v>
       </c>
       <c r="J34" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1790,11 +1792,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1805,8 +1807,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0945832211</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1815,7 +1819,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>40000000</v>
+        <v>7000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1828,11 +1832,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1843,8 +1847,10 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0396237229</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1853,7 +1859,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1866,11 +1872,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1881,8 +1887,10 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0964414150</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1891,10 +1899,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J37" t="n">
-        <v>500000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="38">
@@ -1904,11 +1912,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,8 +1927,10 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="n">
-        <v/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1929,10 +1939,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="39">
@@ -1942,11 +1952,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1967,7 +1977,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>500000</v>
+        <v>60000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1980,11 +1990,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1995,10 +2005,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2007,10 +2015,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>5500000</v>
+        <v>40000000</v>
       </c>
       <c r="J40" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2020,11 +2028,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2045,7 +2053,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2058,11 +2066,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2083,10 +2091,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>3500000</v>
+        <v>2000000</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="43">
@@ -2096,11 +2104,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2121,10 +2129,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="J43" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2134,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,10 +2167,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="J44" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2172,11 +2180,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2187,8 +2195,10 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2197,10 +2207,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>36900000</v>
+        <v>5500000</v>
       </c>
       <c r="J45" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="46">
@@ -2210,11 +2220,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2235,7 +2245,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2248,11 +2258,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2273,10 +2283,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="J47" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2286,11 +2296,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2311,7 +2321,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>11000000</v>
+        <v>15000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2324,11 +2334,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2349,10 +2359,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="J49" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2362,11 +2372,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2387,10 +2397,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>10000000</v>
+        <v>36900000</v>
       </c>
       <c r="J50" t="n">
-        <v>25000000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="51">
@@ -2400,11 +2410,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2425,7 +2435,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2438,11 +2448,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2463,10 +2473,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>5500000</v>
+        <v>1500000</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="53">
@@ -2476,11 +2486,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2501,10 +2511,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J53" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2514,11 +2524,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2539,10 +2549,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="J54" t="n">
-        <v>13000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="55">
@@ -2552,11 +2562,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2577,10 +2587,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="J55" t="n">
-        <v>1000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="56">
@@ -2590,11 +2600,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2615,10 +2625,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J56" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2628,11 +2638,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2653,7 +2663,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>21000000</v>
+        <v>5500000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2666,35 +2676,225 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>73</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Chị Xuyến</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v/>
+      </c>
+      <c r="F58" t="n">
+        <v/>
+      </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+      <c r="H58" t="n">
+        <v/>
+      </c>
+      <c r="I58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>72</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>em Nhi</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v/>
+      </c>
+      <c r="F59" t="n">
+        <v/>
+      </c>
+      <c r="G59" t="n">
+        <v/>
+      </c>
+      <c r="H59" t="n">
+        <v/>
+      </c>
+      <c r="I59" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>71</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Chị Loan</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v/>
+      </c>
+      <c r="F60" t="n">
+        <v/>
+      </c>
+      <c r="G60" t="n">
+        <v/>
+      </c>
+      <c r="H60" t="n">
+        <v/>
+      </c>
+      <c r="I60" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>70</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cô Trang</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v/>
+      </c>
+      <c r="F61" t="n">
+        <v/>
+      </c>
+      <c r="G61" t="n">
+        <v/>
+      </c>
+      <c r="H61" t="n">
+        <v/>
+      </c>
+      <c r="I61" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>69</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v/>
+      </c>
+      <c r="F62" t="n">
+        <v/>
+      </c>
+      <c r="G62" t="n">
+        <v/>
+      </c>
+      <c r="H62" t="n">
+        <v/>
+      </c>
+      <c r="I62" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
         <v>68</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v/>
-      </c>
-      <c r="F58" t="n">
-        <v/>
-      </c>
-      <c r="G58" t="n">
-        <v/>
-      </c>
-      <c r="H58" t="n">
-        <v/>
-      </c>
-      <c r="I58" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5000000</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v/>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+      <c r="H63" t="n">
+        <v/>
+      </c>
+      <c r="I63" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="J4" t="n">
-        <v>40500000</v>
+        <v>20500000</v>
       </c>
     </row>
     <row r="5">

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -590,7 +590,7 @@
         <v>40000000</v>
       </c>
       <c r="J4" t="n">
-        <v>20500000</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="5">

--- a/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Danh sách khách hàng/Danh sách khách hàng tại LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>Cầm dương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0989211191</t>
+          <t>0364580162</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yến</t>
+          <t>C.hạnh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,10 +535,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0388388943</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -547,7 +545,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>3000000</v>
+        <v>5500000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0868375152</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>40000000</v>
+        <v>3000000</v>
       </c>
       <c r="J4" t="n">
-        <v>26500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="5">
@@ -600,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mẹ mai sang</t>
+          <t>Yến</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0918997753</t>
+          <t>0388388943</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +625,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>H-Sa</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0394582697</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>38000000</v>
+        <v>40000000</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thanh nhã</t>
+          <t>Mẹ mai sang</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0949377116</t>
+          <t>0918997753</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chị duyên</t>
+          <t>H-Sa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0988925422</t>
+          <t>0394582697</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,7 +745,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>8000000</v>
+        <v>38000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Đinh trần tố</t>
+          <t>Thanh nhã</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0946041192</t>
+          <t>0949377116</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,7 +785,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,11 +798,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thanh</t>
+          <t>Chị duyên</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -815,8 +813,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0988925422</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -825,7 +825,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>Đinh trần tố</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>094990449</t>
+          <t>0946041192</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -865,7 +865,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trần thị mỹ duyên</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -893,10 +893,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0912239800</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -905,7 +903,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -918,11 +916,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>Chị vui</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -933,8 +931,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>094990449</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -943,7 +943,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -956,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,8 +971,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0912239800</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -981,7 +983,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -994,11 +996,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1009,10 +1011,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1021,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1049,10 +1049,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0345277993</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1061,7 +1059,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1800000</v>
+        <v>7000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1074,11 +1072,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1091,7 +1089,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1101,10 +1099,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
       <c r="J17" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1114,11 +1112,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,7 +1129,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1141,7 +1139,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>2500000</v>
+        <v>1800000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1154,11 +1152,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1171,7 +1169,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1181,10 +1179,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="20">
@@ -1194,11 +1192,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1211,7 +1209,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1221,7 +1219,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1234,11 +1232,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1251,7 +1249,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1274,11 +1272,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1289,8 +1287,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0876359756</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1299,7 +1299,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>3000000</v>
+        <v>1350000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1312,11 +1312,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1339,7 +1339,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1352,11 +1352,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1367,10 +1367,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0989649094</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1379,7 +1377,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>8100000</v>
+        <v>3000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1392,11 +1390,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,7 +1407,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1419,10 +1417,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="J25" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1432,11 +1430,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1449,7 +1447,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1459,7 +1457,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>2000000</v>
+        <v>8100000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1472,11 +1470,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1489,7 +1487,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1499,10 +1497,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
       <c r="J27" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="28">
@@ -1512,11 +1510,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1529,7 +1527,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1539,7 +1537,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1552,11 +1550,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1569,7 +1567,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1579,10 +1577,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>3500000</v>
+        <v>7000000</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30">
@@ -1592,11 +1590,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1609,7 +1607,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1619,10 +1617,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>18000000</v>
+        <v>900000</v>
       </c>
       <c r="J30" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1632,11 +1630,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1649,7 +1647,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1659,7 +1657,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>8000000</v>
+        <v>3500000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1672,11 +1670,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1689,7 +1687,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1699,10 +1697,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>6500000</v>
+        <v>18000000</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="33">
@@ -1712,11 +1710,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1729,7 +1727,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1739,7 +1737,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>2800000</v>
+        <v>8000000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1752,11 +1750,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1769,7 +1767,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1779,7 +1777,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>40500000</v>
+        <v>6500000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1792,11 +1790,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1809,7 +1807,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1819,7 +1817,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>7000000</v>
+        <v>2800000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1832,11 +1830,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1849,7 +1847,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1859,7 +1857,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>6000000</v>
+        <v>40500000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1872,11 +1870,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1889,7 +1887,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1899,10 +1897,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="J37" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1912,11 +1910,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1929,7 +1927,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1939,10 +1937,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>1800000</v>
+        <v>6000000</v>
       </c>
       <c r="J38" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1952,11 +1950,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1967,8 +1965,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0964414150</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1977,10 +1977,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>60000000</v>
+        <v>8000000</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="40">
@@ -1990,11 +1990,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2005,8 +2005,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2015,10 +2017,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>40000000</v>
+        <v>1800000</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="41">
@@ -2028,11 +2030,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2053,7 +2055,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>12000000</v>
+        <v>60000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2066,11 +2068,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2091,10 +2093,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>2000000</v>
+        <v>40000000</v>
       </c>
       <c r="J42" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2104,11 +2106,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2129,7 +2131,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2142,11 +2144,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2167,10 +2169,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J44" t="n">
         <v>500000</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2180,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2195,10 +2197,8 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2207,10 +2207,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>5500000</v>
+        <v>1000000</v>
       </c>
       <c r="J45" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2220,11 +2220,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2245,7 +2245,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2258,11 +2258,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2273,8 +2273,10 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2283,10 +2285,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>3500000</v>
+        <v>5500000</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="48">
@@ -2296,11 +2298,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2321,7 +2323,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2334,11 +2336,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2359,7 +2361,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>11000000</v>
+        <v>3500000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2372,11 +2374,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2397,10 +2399,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>36900000</v>
+        <v>15000000</v>
       </c>
       <c r="J50" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2410,11 +2412,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2435,7 +2437,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>2000000</v>
+        <v>11000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2448,11 +2450,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2473,10 +2475,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1500000</v>
+        <v>36900000</v>
       </c>
       <c r="J52" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="53">
@@ -2486,11 +2488,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2511,7 +2513,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>11000000</v>
+        <v>2000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2524,11 +2526,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2549,10 +2551,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J54" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="55">
@@ -2562,11 +2564,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2587,10 +2589,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>13000000</v>
+        <v>11000000</v>
       </c>
       <c r="J55" t="n">
-        <v>22000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2600,11 +2602,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2625,10 +2627,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="57">
@@ -2638,11 +2640,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2663,10 +2665,10 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>5500000</v>
+        <v>13000000</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="58">
@@ -2676,11 +2678,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2701,10 +2703,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J58" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2714,11 +2716,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2739,10 +2741,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>19000000</v>
+        <v>5500000</v>
       </c>
       <c r="J59" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2752,11 +2754,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2777,10 +2779,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J60" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="61">
@@ -2790,11 +2792,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2815,10 +2817,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>4000000</v>
+        <v>19000000</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="62">
@@ -2828,11 +2830,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2853,10 +2855,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>21000000</v>
+        <v>6000000</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="63">
@@ -2866,34 +2868,110 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>70</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cô Trang</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v/>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+      <c r="H63" t="n">
+        <v/>
+      </c>
+      <c r="I63" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>69</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v/>
+      </c>
+      <c r="F64" t="n">
+        <v/>
+      </c>
+      <c r="G64" t="n">
+        <v/>
+      </c>
+      <c r="H64" t="n">
+        <v/>
+      </c>
+      <c r="I64" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>68</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v/>
-      </c>
-      <c r="F63" t="n">
-        <v/>
-      </c>
-      <c r="G63" t="n">
-        <v/>
-      </c>
-      <c r="H63" t="n">
-        <v/>
-      </c>
-      <c r="I63" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v/>
+      </c>
+      <c r="F65" t="n">
+        <v/>
+      </c>
+      <c r="G65" t="n">
+        <v/>
+      </c>
+      <c r="H65" t="n">
+        <v/>
+      </c>
+      <c r="I65" t="n">
         <v>6000000</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J65" t="n">
         <v>4000000</v>
       </c>
     </row>
